--- a/farmServer/src/main/resources/config/Entity.xlsx
+++ b/farmServer/src/main/resources/config/Entity.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13872" windowHeight="5160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>BuildingID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,15 +231,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸</t>
+    <t>我的小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于种植作物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种农作物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饲养奶牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饲料厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产饲料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,8 +330,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,15 +617,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2">
+        <v>-1</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <v>-1</v>
+      </c>
+      <c r="P3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1500</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>601</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>701</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2500</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>702</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5000</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,49 +1120,43 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -647,49 +1170,43 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>701</v>
       </c>
@@ -703,141 +1220,135 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
         <v>7</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
+      <c r="J3">
+        <v>5000</v>
+      </c>
+      <c r="K3">
+        <v>6000</v>
       </c>
       <c r="L3">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="P3">
         <v>-1</v>
       </c>
-      <c r="Q3">
-        <v>-1</v>
-      </c>
-      <c r="R3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="K5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="L6" t="s">
+      <c r="J7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>43</v>
       </c>
     </row>

--- a/farmServer/src/main/resources/config/Entity.xlsx
+++ b/farmServer/src/main/resources/config/Entity.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目空间\农场\farmServer\farmServer\src\main\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13872" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>BuildingID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,14 +283,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小屋</t>
+    <t>1_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不参与建造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,16 +643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,15 +699,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
+      <c r="D2">
+        <v>-1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -710,7 +731,7 @@
         <v>-1</v>
       </c>
       <c r="L2">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="M2">
         <v>-1</v>
@@ -725,7 +746,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>201</v>
       </c>
@@ -750,8 +771,8 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>100</v>
+      <c r="J3" t="s">
+        <v>64</v>
       </c>
       <c r="K3">
         <v>-1</v>
@@ -772,7 +793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>301</v>
       </c>
@@ -819,7 +840,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>401</v>
       </c>
@@ -844,8 +865,8 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>500</v>
+      <c r="J5" t="s">
+        <v>65</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -866,7 +887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>501</v>
       </c>
@@ -891,8 +912,8 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>1500</v>
+      <c r="J6" t="s">
+        <v>66</v>
       </c>
       <c r="K6">
         <v>90</v>
@@ -913,7 +934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>601</v>
       </c>
@@ -938,8 +959,8 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>3000</v>
+      <c r="J7" t="s">
+        <v>67</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -960,7 +981,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>701</v>
       </c>
@@ -985,8 +1006,8 @@
       <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>2500</v>
+      <c r="J8" t="s">
+        <v>68</v>
       </c>
       <c r="K8">
         <v>300</v>
@@ -1007,7 +1028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>702</v>
       </c>
@@ -1035,8 +1056,8 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>5000</v>
+      <c r="J9" t="s">
+        <v>69</v>
       </c>
       <c r="K9">
         <v>300</v>
@@ -1045,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1057,35 +1078,35 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
@@ -1098,15 +1119,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1206,7 +1227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>701</v>
       </c>
@@ -1256,7 +1277,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -1279,7 +1303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1323,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -1307,49 +1334,72 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
